--- a/IO_M2.1_new/MattC_RunControl_initRuns.xlsx
+++ b/IO_M2.1_new/MattC_RunControl_initRuns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -2303,9 +2303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>606240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2314,8 +2314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8213760" y="3313440"/>
-          <a:ext cx="2526840" cy="1531080"/>
+          <a:off x="8242200" y="3313440"/>
+          <a:ext cx="2526840" cy="1530720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,7 +2742,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2807,22 +2807,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3825,7 +3825,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="27" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="27" width="11.6761133603239"/>
@@ -4538,26 +4538,26 @@
   </sheetPr>
   <dimension ref="A1:AY110"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.3441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.3886639676113"/>
@@ -4567,7 +4567,7 @@
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="4" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="48" min="44" style="0" width="13.3886639676113"/>
@@ -18668,13 +18668,13 @@
   </sheetPr>
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18694,7 +18694,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.075</v>
@@ -18706,9 +18706,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.025</v>
@@ -18720,9 +18720,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.075</v>
@@ -18794,7 +18794,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18850,7 +18850,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -18877,9 +18877,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.1578947368421"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19297,12 +19297,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.080971659919"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="121.14979757085"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19961,11 +19961,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.8380566801619"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.5910931174089"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/IO_M2.1_new/MattC_RunControl_initRuns.xlsx
+++ b/IO_M2.1_new/MattC_RunControl_initRuns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -2303,9 +2303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>605880</xdr:colOff>
+      <xdr:colOff>604800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2314,8 +2314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8242200" y="3313440"/>
-          <a:ext cx="2526840" cy="1530720"/>
+          <a:off x="8299440" y="3313440"/>
+          <a:ext cx="2525400" cy="1529640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,7 +2742,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2807,22 +2807,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3825,7 +3824,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="27" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="27" width="11.6761133603239"/>
@@ -4538,26 +4537,26 @@
   </sheetPr>
   <dimension ref="A1:AY110"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C2" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.9514170040486"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.3886639676113"/>
@@ -4566,8 +4565,7 @@
     <col collapsed="false" hidden="false" max="29" min="27" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="4" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="37" min="32" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="48" min="44" style="0" width="13.3886639676113"/>
@@ -18668,13 +18666,13 @@
   </sheetPr>
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18793,8 +18791,8 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18877,9 +18875,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.6194331983806"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19297,12 +19295,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="121.14979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.473684210526"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19961,11 +19959,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.5910931174089"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/IO_M2.1_new/MattC_RunControl_initRuns.xlsx
+++ b/IO_M2.1_new/MattC_RunControl_initRuns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="508">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -525,13 +525,19 @@
     <t xml:space="preserve">VSERS</t>
   </si>
   <si>
-    <t xml:space="preserve">VSERS.fillin.yos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.fillin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.yos</t>
+    <t xml:space="preserve">VT-VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersterm.average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersret</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -1742,13 +1748,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -2303,9 +2309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2314,8 +2320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8299440" y="3313440"/>
-          <a:ext cx="2525400" cy="1529640"/>
+          <a:off x="6694560" y="3313440"/>
+          <a:ext cx="2033640" cy="1528920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2346,11 +2352,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟</a:t>
@@ -2360,11 +2361,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>_𝑔=𝑟_(𝑎 )− </a:t>
@@ -2374,11 +2370,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>〖𝑠𝑑〗</a:t>
@@ -2388,24 +2379,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>^2  </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2420,11 +2398,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>(𝑟_(𝑎 )−𝑟_(𝑓  ))/𝑠𝑑</a:t>
@@ -2434,24 +2407,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t> = S</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2461,15 +2421,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2484,11 +2436,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Solve for sd and </a:t>
@@ -2498,11 +2445,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟_(𝑎 )</a:t>
@@ -2512,24 +2454,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2539,15 +2468,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2562,11 +2483,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>sd = </a:t>
@@ -2576,24 +2492,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>(2𝑆 − √(4𝑠^2  −8(𝑟_𝑔  − 𝑟_𝑓))  )/2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2608,11 +2511,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟</a:t>
@@ -2622,11 +2520,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>_(𝑎 )</a:t>
@@ -2636,11 +2529,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= </a:t>
@@ -2650,11 +2538,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟_(𝑔 )+  </a:t>
@@ -2664,11 +2547,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>〖𝑠𝑑〗</a:t>
@@ -2678,24 +2556,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>^2⁄2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2705,15 +2570,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2731,7 +2588,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2739,11 +2596,11 @@
       <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2643,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2801,41 +2658,41 @@
   </sheetPr>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="0"/>
@@ -2844,23 +2701,23 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B2" s="42" t="n">
         <v>0.46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="42" t="n">
         <v>0.46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O2" s="42" t="n">
         <v>0.46</v>
@@ -2871,7 +2728,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B3" s="43" t="n">
         <v>0.027</v>
@@ -2899,46 +2756,46 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="I5" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="P5" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="R5" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3322,7 @@
       <c r="N26" s="49"/>
       <c r="O26" s="51"/>
       <c r="P26" s="51" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="49"/>
       <c r="R26" s="50"/>
@@ -3518,19 +3375,19 @@
       <c r="B30" s="0"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P30" s="0"/>
     </row>
@@ -3558,7 +3415,7 @@
         <v>0.075</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P31" s="0"/>
     </row>
@@ -3586,7 +3443,7 @@
         <v>0.075</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P32" s="0"/>
     </row>
@@ -3621,7 +3478,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P34" s="0"/>
     </row>
@@ -3648,14 +3505,14 @@
         <v>0.0332</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P35" s="0"/>
       <c r="R35" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +3538,7 @@
         <v>0.08083072</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P36" s="0"/>
       <c r="R36" s="0" t="n">
@@ -3735,7 +3592,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>0.081</v>
@@ -3770,7 +3627,7 @@
         <v>0.0332</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,13 +3652,13 @@
         <v>0.08083072</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3817,20 +3674,20 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="27" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,25 +3749,25 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="56" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
@@ -3922,7 +3779,7 @@
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="59" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E6" s="60" t="n">
         <v>0.459999999999999</v>
@@ -3952,7 +3809,7 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="62" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E7" s="63" t="n">
         <v>0.46</v>
@@ -3982,7 +3839,7 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="59" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E8" s="60" t="n">
         <v>0.46</v>
@@ -4031,7 +3888,7 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E10" s="65" t="n">
         <v>0.36506976744186</v>
@@ -4061,7 +3918,7 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="59" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E11" s="65" t="n">
         <v>0.317084012446288</v>
@@ -4091,7 +3948,7 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="59" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E12" s="65" t="n">
         <v>0.133333333333333</v>
@@ -4121,7 +3978,7 @@
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="66" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E13" s="67" t="n">
         <v>0.293478260869565</v>
@@ -4151,7 +4008,7 @@
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="69" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
@@ -4329,7 +4186,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E25" s="46" t="n">
         <v>0.423209302325581</v>
@@ -4352,7 +4209,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E26" s="46" t="n">
         <v>0.391169062083272</v>
@@ -4375,7 +4232,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E27" s="46" t="n">
         <v>0.3</v>
@@ -4398,7 +4255,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E28" s="46" t="n">
         <v>0.347826086956522</v>
@@ -4425,7 +4282,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4440,13 +4297,13 @@
   </sheetPr>
   <dimension ref="A6:A25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,7 +4379,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4537,39 +4394,39 @@
   </sheetPr>
   <dimension ref="A1:AY110"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C2" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="G3" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topRight" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="4" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="32" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="48" min="44" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="32" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="38" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="44" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="49" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,17 +5499,16 @@
         <v>135</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O10" s="23" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="22" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="23" t="n">
         <v>0.022</v>
@@ -5776,7 +5632,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -5809,10 +5665,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -5968,10 +5824,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C16" s="22" t="n">
         <v>0</v>
@@ -6127,10 +5983,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -6286,10 +6142,10 @@
     </row>
     <row r="18" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C18" s="22" t="n">
         <v>0</v>
@@ -6445,10 +6301,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C19" s="22" t="n">
         <v>0</v>
@@ -6604,10 +6460,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="22" t="n">
         <v>0</v>
@@ -6763,10 +6619,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -6922,10 +6778,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -7081,10 +6937,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="22" t="n">
         <v>0</v>
@@ -7240,10 +7096,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>0</v>
@@ -7399,10 +7255,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C25" s="22" t="n">
         <v>0</v>
@@ -7590,10 +7446,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>0</v>
@@ -7749,10 +7605,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C28" s="22" t="n">
         <v>0</v>
@@ -7939,7 +7795,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -7972,7 +7828,7 @@
     </row>
     <row r="31" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -8005,10 +7861,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>0</v>
@@ -8165,10 +8021,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -8325,10 +8181,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -8485,10 +8341,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -8645,10 +8501,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C36" s="22" t="n">
         <v>0</v>
@@ -8805,10 +8661,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C37" s="22" t="n">
         <v>0</v>
@@ -8964,10 +8820,10 @@
     </row>
     <row r="38" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -9124,10 +8980,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -9283,10 +9139,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" s="22" t="n">
         <v>0</v>
@@ -9443,10 +9299,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C41" s="22" t="n">
         <v>0</v>
@@ -9634,10 +9490,10 @@
     </row>
     <row r="43" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C43" s="22" t="n">
         <v>0</v>
@@ -9794,10 +9650,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>0</v>
@@ -9954,10 +9810,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -10114,10 +9970,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -10274,10 +10130,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -10434,10 +10290,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>0</v>
@@ -10594,10 +10450,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C49" s="22" t="n">
         <v>0</v>
@@ -10754,10 +10610,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C50" s="22" t="n">
         <v>0</v>
@@ -10945,10 +10801,10 @@
     </row>
     <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>0</v>
@@ -11105,10 +10961,10 @@
     </row>
     <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -11265,10 +11121,10 @@
     </row>
     <row r="54" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -11425,10 +11281,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>0</v>
@@ -11585,10 +11441,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C56" s="22" t="n">
         <v>0</v>
@@ -11745,10 +11601,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C57" s="22" t="n">
         <v>0</v>
@@ -11905,10 +11761,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -12065,10 +11921,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -12296,7 +12152,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -12329,10 +12185,10 @@
     </row>
     <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -12489,10 +12345,10 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -12649,10 +12505,10 @@
     </row>
     <row r="65" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -12809,10 +12665,10 @@
     </row>
     <row r="66" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -12969,10 +12825,10 @@
     </row>
     <row r="67" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>0</v>
@@ -13129,10 +12985,10 @@
     </row>
     <row r="68" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -13288,10 +13144,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>0</v>
@@ -13448,10 +13304,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -13640,10 +13496,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -13832,7 +13688,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -13866,10 +13722,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -14025,10 +13881,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -14185,10 +14041,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>0</v>
@@ -14345,10 +14201,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -14505,10 +14361,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -14665,10 +14521,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C80" s="22" t="n">
         <v>0</v>
@@ -14825,10 +14681,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -14985,10 +14841,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -15177,7 +15033,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -15211,10 +15067,10 @@
     </row>
     <row r="85" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -15371,10 +15227,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -15531,10 +15387,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -15691,10 +15547,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C88" s="22" t="n">
         <v>0</v>
@@ -15851,10 +15707,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C89" s="22" t="n">
         <v>0</v>
@@ -16044,7 +15900,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -16071,10 +15927,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C92" s="22" t="n">
         <v>0</v>
@@ -16231,10 +16087,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C93" s="22" t="n">
         <v>0</v>
@@ -16391,10 +16247,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C94" s="22" t="n">
         <v>0</v>
@@ -16551,10 +16407,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C95" s="22" t="n">
         <v>0</v>
@@ -16711,10 +16567,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C96" s="22" t="n">
         <v>0</v>
@@ -16903,7 +16759,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
@@ -16936,10 +16792,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C99" s="22" t="n">
         <v>0</v>
@@ -17096,10 +16952,10 @@
     </row>
     <row r="100" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C100" s="22" t="n">
         <v>0</v>
@@ -17256,10 +17112,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -17416,10 +17272,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C102" s="22" t="n">
         <v>0</v>
@@ -17576,10 +17432,10 @@
     </row>
     <row r="103" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -17739,17 +17595,17 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AC105" s="34"/>
       <c r="AE105" s="0"/>
     </row>
     <row r="106" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C106" s="22" t="n">
         <v>0</v>
@@ -17907,10 +17763,10 @@
     </row>
     <row r="107" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -18068,10 +17924,10 @@
     </row>
     <row r="108" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C108" s="22" t="n">
         <v>0</v>
@@ -18229,10 +18085,10 @@
     </row>
     <row r="109" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -18390,10 +18246,10 @@
     </row>
     <row r="110" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -18651,7 +18507,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18666,14 +18522,14 @@
   </sheetPr>
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18687,7 +18543,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18735,7 +18591,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18750,13 +18606,13 @@
   </sheetPr>
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18764,19 +18620,19 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18791,41 +18647,41 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18854,7 +18710,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18869,21 +18725,21 @@
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -18893,15 +18749,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18914,23 +18770,23 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18943,23 +18799,23 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18972,7 +18828,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18980,7 +18836,7 @@
         <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19068,35 +18924,35 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19126,22 +18982,22 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19151,34 +19007,34 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19198,40 +19054,40 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19244,28 +19100,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -19274,7 +19130,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19289,39 +19145,39 @@
   </sheetPr>
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.473684210526"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="125.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19333,178 +19189,178 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D8" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D9" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D10" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="26" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D11" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
       <c r="B12" s="26" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D12" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37"/>
       <c r="B13" s="26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D13" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37"/>
       <c r="B15" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D15" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37"/>
       <c r="B16" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D16" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37"/>
       <c r="B17" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D17" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37"/>
       <c r="B18" s="26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D18" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19514,91 +19370,91 @@
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37"/>
       <c r="B20" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D20" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37"/>
       <c r="B21" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D21" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D22" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37"/>
       <c r="B23" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D23" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
       <c r="B24" s="26" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D24" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37"/>
       <c r="B25" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D25" s="30"/>
     </row>
@@ -19609,70 +19465,70 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D27" s="30" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="37"/>
       <c r="B28" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D28" s="30" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="39" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D29" s="30" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D30" s="30" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19682,114 +19538,114 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D32" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D33" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D34" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D35" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="26" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D36" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D37" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D38" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D39" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="41"/>
@@ -19816,19 +19672,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D40" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="41"/>
@@ -19938,7 +19794,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19953,38 +19809,38 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="82.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19993,10 +19849,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -20004,133 +19860,133 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="D10" s="30" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20149,16 +20005,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>133</v>
@@ -20167,10 +20023,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>133</v>
@@ -20179,10 +20035,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>133</v>
@@ -20190,10 +20046,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>133</v>
@@ -20201,10 +20057,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>133</v>
@@ -20216,13 +20072,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>133</v>
@@ -20230,10 +20086,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>133</v>
@@ -20241,10 +20097,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>133</v>
@@ -20252,10 +20108,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>133</v>
@@ -20263,10 +20119,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>133</v>
@@ -20278,16 +20134,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>133</v>
@@ -20295,10 +20151,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>133</v>
@@ -20306,13 +20162,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
